--- a/React Cheatsheet.xlsx
+++ b/React Cheatsheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F403EF-A840-46FE-8EA6-F348501B7396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F65F20-F0A9-4BB7-819F-C912A208C286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="7425" windowWidth="14610" windowHeight="9960" activeTab="1" xr2:uid="{2435591F-8BB8-4C32-9959-B59A38E424FF}"/>
+    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" xr2:uid="{2435591F-8BB8-4C32-9959-B59A38E424FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Absolute Basics" sheetId="2" r:id="rId1"/>
     <sheet name="React Basic" sheetId="1" r:id="rId2"/>
+    <sheet name="React Intermediate" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Code</t>
   </si>
@@ -304,7 +305,7 @@
     <t>function ButtonState() {
     const [title, setTitle] = useState("Title");
     const [count, setCounter] = useState(0);
-    const updateTitleClicked = () =&gt; {
+    function updateTitleClicked() {
         setTitle("New Title");
     }
     function updateCounterClicked() {
@@ -319,18 +320,113 @@
 }</t>
   </si>
   <si>
+    <t>You have to look at it for a while to understand what's going on I think.
+Within the updateTitleClicked function, we are then basically calling a mini-function within a function that allows us to assign the new variable.
+updateTitleClicked and updateCounterClicked are used as event handlers, and when these functions are called, the hooks are then triggered.</t>
+  </si>
+  <si>
     <t>There's quite a lot here so I'll try to explain.
 We are first of all keeping everything here in the ButtonState function.
 Next we're creating a const which we assign a value and a function:
 const [variable, function] = useState["default value"]
-We then have a function within the ButtonState function which allows us to change the variable</t>
+We then have a function within the ButtonState function which allows us to change the variable.
+Finally, we assign a function to be triggered on the button click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return (
+        &lt;div&gt;
+            &lt;Data title={title} count={count} /&gt;
+            &lt;button onClick={updateTitleClicked}&gt;Update Title&lt;/button&gt;
+            &lt;button onClick={updateCounterClicked}&gt;Update Counter&lt;/button&gt;
+        &lt;/div&gt;
+    )
+}
+function Data(props) {
+    return (
+        &lt;div&gt;
+            &lt;p&gt;Title: {props.title}&lt;/p&gt;
+            &lt;p&gt;Count: {props.count}&lt;/p&gt;
+        &lt;/div&gt;
+    )
+}</t>
+  </si>
+  <si>
+    <t>Although this isn't necessary, when we do this, we are further separating the components that we have in order for us to work with it better and have it formatted nicer.
+In this example, we have moved the data from one function to another. As we do this, we are also passing through the values through the props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    const [name, setName] = useState("");
+    const [price, setPrice] = useState(0);
+    return (
+        &lt;div&gt;
+            &lt;h2&gt;Search Bar&lt;/h2&gt;
+            &lt;form &gt;
+                &lt;label for="name-field"&gt;Name:&lt;/label&gt;
+                &lt;input id="name-field" type="text" value={name} onChange={(e) =&gt; setName(e.target.value)} /&gt;
+                &lt;label for="price-field"&gt;Max Price:&lt;/label&gt;
+                &lt;input id="price-field" type="number" value={price} onChange={(e) =&gt; setPrice(e.target.value)} /&gt;</t>
+  </si>
+  <si>
+    <t>We want to change the value in a field. To do this, we have to implement this code within the text input field:
+onChange={(e) =&gt; setName(e.target.value)}
+This will allow us to edit the text within the text field</t>
+  </si>
+  <si>
+    <t>onChange is a React method that's availble within the text input field. We are creating a mini function within it:.
+It takes an event (e) as the parameter, and then immediately calls the useState function. E.target.value represents the current value of the input element.
+We are updating the name element</t>
+  </si>
+  <si>
+    <t>App.js:
+    const [data, setData] = useState([]);
+    const updateData = (searchParams) =&gt; {
+        setData(searchParams);
+    }
+    return (
+        &lt;div className="App"&gt;
+            &lt;SearchBar callback={updateData} /&gt;
+            &lt;p&gt;Name: {data["name"]}&lt;/p&gt;
+            &lt;p&gt;Price: {data["price"]}&lt;/p&gt;
+            &lt;p&gt;Type: {data["type"]}&lt;/p&gt;
+            &lt;p&gt;Brand: {data["brand"]}&lt;/p&gt;
+        &lt;/div&gt;
+    )
+SearchBar.js:
+    const searchButtonPressed = () =&gt; {
+        props.callback({ name: name, price: price, type: type, brand: brand });
+    }
+    return (
+        &lt;div&gt;
+            &lt;h2&gt;Search Bar&lt;/h2&gt;
+            &lt;form &gt;
+             ...
+                &lt;button type="button" onClick={searchButtonPressed}&gt;Search&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>This… is complicated.
+We’re having it so that when a button is pressed, it changes the values in the other field. We are passing variables from one file to another.
+SearchBar.js:
+We create a function called searchButtonPressed, which does ends up doing a callback, invoking a function back in App.js.
+This then updates the data back in App.js</t>
+  </si>
+  <si>
+    <t>SearchBar.js: &lt;SearchBar callback={updateData} /&gt; and App.js: props.callback({ name: name, price: price, type: type, brand: brand });
+We are passing through the data. We get to the const function:
+    const updateData = (searchParams) =&gt; {
+        setData(searchParams);
+    }
+The searchParams are being sent to the data, with the useState. This then triggers a change in the values within the paragraphs below.</t>
+  </si>
+  <si>
+    <t>This is really actually pretty complicated, so the fact that you even kind of understand what's going on is massive. Yeah
+… just refer to the cheatsheet if/when stuck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,16 +434,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -355,20 +465,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -413,26 +617,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35C7BFAB-CF0D-4B99-863C-D5BE8AAC4FB5}" name="Table2" displayName="Table2" ref="A1:D12" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35C7BFAB-CF0D-4B99-863C-D5BE8AAC4FB5}" name="Table2" displayName="Table2" ref="A1:D12" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:D12" xr:uid="{35C7BFAB-CF0D-4B99-863C-D5BE8AAC4FB5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8E693A8A-4F0A-4069-8D23-C8F52C3EA143}" name="Idea" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{5D90CEB8-59A4-4FF1-8AEA-CCEF12A9D34A}" name="Explained" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{E65D8905-CCDB-4DA5-87CC-C0C21E87F346}" name="Notes" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{D9202981-7959-4641-977F-28FCAC7043C4}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8E693A8A-4F0A-4069-8D23-C8F52C3EA143}" name="Idea" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{5D90CEB8-59A4-4FF1-8AEA-CCEF12A9D34A}" name="Explained" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{E65D8905-CCDB-4DA5-87CC-C0C21E87F346}" name="Notes" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D9202981-7959-4641-977F-28FCAC7043C4}" name="Column1" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F839B1F-6060-4D27-854B-280261C55E13}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" dataDxfId="1">
-  <autoFilter ref="A1:D12" xr:uid="{2F839B1F-6060-4D27-854B-280261C55E13}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F839B1F-6060-4D27-854B-280261C55E13}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:D13" xr:uid="{2F839B1F-6060-4D27-854B-280261C55E13}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6DFDAB9F-57B5-401A-B610-2C2CF7890275}" name="Code" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BDE59367-FF73-43C3-9A13-26F98A9EF9E6}" name="What it does" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{5BDAD516-AE89-4917-88FB-25539ED91C61}" name="Explanation" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BE7D883E-160E-442B-A155-9B682E5882FE}" name="Additional notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6DFDAB9F-57B5-401A-B610-2C2CF7890275}" name="Code" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BDE59367-FF73-43C3-9A13-26F98A9EF9E6}" name="What it does" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5BDAD516-AE89-4917-88FB-25539ED91C61}" name="Explanation" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{BE7D883E-160E-442B-A155-9B682E5882FE}" name="Additional notes" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{80586C85-36E7-4DB0-9C58-20BC89FB40E5}" name="Table3" displayName="Table3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A1:D3" xr:uid="{80586C85-36E7-4DB0-9C58-20BC89FB40E5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{AB04A955-AB0A-490B-BCFF-76D6911BEEDF}" name="Code" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A3DFDACA-8467-4A8C-B313-41884EE14222}" name="What it does" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{58FAD937-8ECA-477E-8F30-0AC8CFE60058}" name="Explanation" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8EA41A0E-A1F8-4F32-8170-84E15331DC81}" name="Additional notes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -737,18 +954,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F457FCA6-7307-4D7B-8559-F0212D7E39A2}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -762,7 +979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -772,7 +989,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -782,7 +999,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="75">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -794,7 +1011,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="45">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -804,7 +1021,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -814,7 +1031,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -824,7 +1041,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="60">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -834,7 +1051,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="60">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -844,7 +1061,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="105">
+    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -858,7 +1075,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60">
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -868,7 +1085,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -886,21 +1103,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C327AA-55AA-4525-9ABD-495041975108}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -924,7 +1141,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="150">
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -938,7 +1155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="285">
+    <row r="4" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -952,7 +1169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -962,7 +1179,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="75">
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -972,7 +1189,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="150">
+    <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -986,7 +1203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="210">
+    <row r="8" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1000,7 +1217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1010,7 +1227,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="60">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1020,7 +1237,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="45">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1032,15 +1249,91 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="300">
+    <row r="12" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2300FA9F-D4B7-4272-8EE6-8652B1B44575}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="107.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
